--- a/Partiti.xlsx
+++ b/Partiti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="184">
   <si>
     <t>A</t>
   </si>
@@ -31,139 +31,143 @@
     <t>FRONTE LIBERALE DEMOCRATICO DELL'UOMO QUALUNQUE</t>
   </si>
   <si>
+    <t xml:space="preserve">	
+Fronte dell'Uomo Qualunque</t>
+  </si>
+  <si>
+    <t>PARTITO SOCIALISTA ITALIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partito Socialista Italiano </t>
+  </si>
+  <si>
+    <t>PARTITO SOCIALISTA LAVORATORI ITALIANI</t>
+  </si>
+  <si>
+    <t>Partito Socialista Democratico Italiano</t>
+  </si>
+  <si>
+    <t>COMUNISTA</t>
+  </si>
+  <si>
+    <t>Partito Comunista Italiano</t>
+  </si>
+  <si>
+    <t>REPUBBLICANO</t>
+  </si>
+  <si>
+    <t>Partito Repubblicano Italiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIONE DEMOCRATICA NAZIONALE </t>
+  </si>
+  <si>
+    <t>Scelta Civica</t>
+  </si>
+  <si>
+    <t>LIBERALE</t>
+  </si>
+  <si>
+    <t>Partito Liberale Italiano</t>
+  </si>
+  <si>
+    <t>MISTO</t>
+  </si>
+  <si>
+    <t>Misto</t>
+  </si>
+  <si>
+    <t>PARTITO SOCIALISTA</t>
+  </si>
+  <si>
+    <t>PARTITO SOCIALISTA DEI LAVORATORI ITALIANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITA' SOCIALISTA </t>
+  </si>
+  <si>
+    <t>PARTITO NAZIONALE MONARCHICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partito Nazionale Monarchico </t>
+  </si>
+  <si>
+    <t>PARTITO SOCIALISTA UNITARIO</t>
+  </si>
+  <si>
+    <t>PARTITO REPUBBLICANO ITALIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTITO SOCIALISTA DEMOCRATICO ITALIANO </t>
+  </si>
+  <si>
+    <t>PARTITO MONARCHICO POPOLARE</t>
+  </si>
+  <si>
+    <t>Partito Monarchico Popolare</t>
+  </si>
+  <si>
+    <t>MOVIMENTO SOCIALE ITALIANO</t>
+  </si>
+  <si>
+    <t>Movimento Sociale Italiano</t>
+  </si>
+  <si>
+    <t>PARTITO SOCIALISTA ITALIANO - PARTITO SOCIALISTA DEMOCRATICO ITALIANO UNIFICATI</t>
+  </si>
+  <si>
+    <t>PSI-PSDI Unificati</t>
+  </si>
+  <si>
+    <t>PARTITO LIBERALE ITALIANO</t>
+  </si>
+  <si>
+    <t>PARTITO SOCIALISTA ITALIANO DI UNITA' PROLETARIA</t>
+  </si>
+  <si>
+    <t>Partito Socialista Italiano di Unità Proletaria</t>
+  </si>
+  <si>
+    <t>DEMOCRAZIA CRISTIANA</t>
+  </si>
+  <si>
+    <t>Democrazia Cristiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTITO COMUNISTA ITALIANO </t>
+  </si>
+  <si>
+    <t>COSTITUENTE DI DESTRA - DEMOCRAZIA NAZIONALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democrazia Nazionale </t>
+  </si>
+  <si>
+    <t>DEMOCRAZIA PROLETARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democrazia Proletaria </t>
+  </si>
+  <si>
+    <t>PARTITO DI UNITA' PROLETARIA PER IL COMUNISMO</t>
+  </si>
+  <si>
+    <t>Partito di Unità Proletaria per il Comunismo</t>
+  </si>
+  <si>
+    <t>MOVIMENTO SOCIALE ITALIANO - DESTRA NAZIONALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMOCRAZIA DEL LAVORO </t>
+  </si>
+  <si>
+    <t>Democrazia del lavoro</t>
+  </si>
+  <si>
+    <t>UNIONE NAZIONALE</t>
+  </si>
+  <si>
     <t>Fronte dell'uomo qualunque</t>
-  </si>
-  <si>
-    <t>PARTITO SOCIALISTA ITALIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partito Socialista Italiano </t>
-  </si>
-  <si>
-    <t>PARTITO SOCIALISTA LAVORATORI ITALIANI</t>
-  </si>
-  <si>
-    <t>Partito Socialista Democratico Italiano</t>
-  </si>
-  <si>
-    <t>COMUNISTA</t>
-  </si>
-  <si>
-    <t>Partito Comunista Italiano</t>
-  </si>
-  <si>
-    <t>REPUBBLICANO</t>
-  </si>
-  <si>
-    <t>Partito Repubblicano Italiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIONE DEMOCRATICA NAZIONALE </t>
-  </si>
-  <si>
-    <t>Scelta Civica</t>
-  </si>
-  <si>
-    <t>LIBERALE</t>
-  </si>
-  <si>
-    <t>Partito Liberale Italiano</t>
-  </si>
-  <si>
-    <t>MISTO</t>
-  </si>
-  <si>
-    <t>Misto</t>
-  </si>
-  <si>
-    <t>PARTITO SOCIALISTA</t>
-  </si>
-  <si>
-    <t>PARTITO SOCIALISTA DEI LAVORATORI ITALIANI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNITA' SOCIALISTA </t>
-  </si>
-  <si>
-    <t>PARTITO NAZIONALE MONARCHICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partito Nazionale Monarchico </t>
-  </si>
-  <si>
-    <t>PARTITO SOCIALISTA UNITARIO</t>
-  </si>
-  <si>
-    <t>PARTITO REPUBBLICANO ITALIANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARTITO SOCIALISTA DEMOCRATICO ITALIANO </t>
-  </si>
-  <si>
-    <t>PARTITO MONARCHICO POPOLARE</t>
-  </si>
-  <si>
-    <t>Partito Monarchico Popolare</t>
-  </si>
-  <si>
-    <t>MOVIMENTO SOCIALE ITALIANO</t>
-  </si>
-  <si>
-    <t>Movimento Sociale Italiano</t>
-  </si>
-  <si>
-    <t>PARTITO SOCIALISTA ITALIANO - PARTITO SOCIALISTA DEMOCRATICO ITALIANO UNIFICATI</t>
-  </si>
-  <si>
-    <t>PSI-PSDI Unificati</t>
-  </si>
-  <si>
-    <t>PARTITO LIBERALE ITALIANO</t>
-  </si>
-  <si>
-    <t>PARTITO SOCIALISTA ITALIANO DI UNITA' PROLETARIA</t>
-  </si>
-  <si>
-    <t>Partito Socialista Italiano di Unità Proletaria</t>
-  </si>
-  <si>
-    <t>DEMOCRAZIA CRISTIANA</t>
-  </si>
-  <si>
-    <t>Democrazia Cristiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARTITO COMUNISTA ITALIANO </t>
-  </si>
-  <si>
-    <t>COSTITUENTE DI DESTRA - DEMOCRAZIA NAZIONALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democrazia Nazionale </t>
-  </si>
-  <si>
-    <t>DEMOCRAZIA PROLETARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democrazia Proletaria </t>
-  </si>
-  <si>
-    <t>PARTITO DI UNITA' PROLETARIA PER IL COMUNISMO</t>
-  </si>
-  <si>
-    <t>Partito di Unità Proletaria per il Comunismo</t>
-  </si>
-  <si>
-    <t>MOVIMENTO SOCIALE ITALIANO - DESTRA NAZIONALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMOCRAZIA DEL LAVORO </t>
-  </si>
-  <si>
-    <t>Democrazia del lavoro</t>
-  </si>
-  <si>
-    <t>UNIONE NAZIONALE</t>
   </si>
   <si>
     <t>BLOCCO NAZIONALE DELLA LIBERTA'</t>
@@ -1156,20 +1160,20 @@
         <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
@@ -1177,7 +1181,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>24</v>
@@ -1185,7 +1189,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
@@ -1193,7 +1197,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
@@ -1201,47 +1205,47 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
@@ -1249,63 +1253,63 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
@@ -1313,223 +1317,223 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>3</v>
@@ -1537,111 +1541,111 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>15</v>
@@ -1649,23 +1653,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>15</v>
@@ -1673,23 +1677,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
       <c r="A96" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>15</v>
@@ -1697,31 +1701,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>15</v>
@@ -1729,87 +1733,87 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
       <c r="A105" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
       <c r="A107" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
       <c r="A108" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
       <c r="A109" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
       <c r="A110" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
       <c r="A111" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
       <c r="A112" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>15</v>
@@ -1817,106 +1821,106 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
       <c r="A113" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
       <c r="A114" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
       <c r="A116" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
       <c r="A117" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
       <c r="A119" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
       <c r="A122" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
       <c r="A123" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
       <c r="A125" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Partiti.xlsx
+++ b/Partiti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e1ab523863af8d3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DE50A2B5-1312-4C32-A671-23C8E36649E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B8BA9C8-71D8-49BA-BA78-DA894220D58A}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{DE50A2B5-1312-4C32-A671-23C8E36649E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B65647B5-21ED-4E81-B2ED-78D2A2146ECA}"/>
   <bookViews>
-    <workbookView xWindow="1932" yWindow="1140" windowWidth="17280" windowHeight="10908" xr2:uid="{933C662A-322D-4297-B158-AF9785DD6C1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{933C662A-322D-4297-B158-AF9785DD6C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
   <si>
     <t xml:space="preserve">DEMOCRATICO CRISTIANO </t>
   </si>
@@ -272,9 +272,6 @@
     <t>Partito Popolare Italiano</t>
   </si>
   <si>
-    <t>Fronte dell'uomo qualunque</t>
-  </si>
-  <si>
     <t>Partito Socialista Democratico Italiano</t>
   </si>
   <si>
@@ -290,12 +287,6 @@
     <t>Partito Liberale Italiano</t>
   </si>
   <si>
-    <t xml:space="preserve">Partito Nazionale Monarchico </t>
-  </si>
-  <si>
-    <t>Movimento Sociale Italiano</t>
-  </si>
-  <si>
     <t>Italia Viva</t>
   </si>
   <si>
@@ -311,36 +302,15 @@
     <t>Lega Nord</t>
   </si>
   <si>
-    <t>Lega Italiana Federalista</t>
-  </si>
-  <si>
-    <t>Noi Moderati</t>
-  </si>
-  <si>
-    <t>Democrazia del lavoro</t>
-  </si>
-  <si>
-    <t>Rifondazione Comunista</t>
-  </si>
-  <si>
     <t>Centro Democratico</t>
   </si>
   <si>
     <t>RIFONDAZIONE COMUNISTA</t>
   </si>
   <si>
-    <t>Unione Democratici per l'Europa</t>
-  </si>
-  <si>
     <t>L'Ulivo</t>
   </si>
   <si>
-    <t>Unione di Centro</t>
-  </si>
-  <si>
-    <t>Futuro e libertà per l'italia</t>
-  </si>
-  <si>
     <t>Liberi e Uguali</t>
   </si>
   <si>
@@ -539,9 +509,6 @@
     <t>LEGA NORD E AUTONOMIE - LEGA DEI POPOLI - NOI CON SALVINI</t>
   </si>
   <si>
-    <t xml:space="preserve">Partito d'Azione </t>
-  </si>
-  <si>
     <t>FRATELLI D'ITALIA-ALLEANZA NAZIONALE</t>
   </si>
   <si>
@@ -572,9 +539,6 @@
     <t>Partito Nazionale Monarchico</t>
   </si>
   <si>
-    <t>Democrazia Nazionale</t>
-  </si>
-  <si>
     <t>Democrazia Proletaria</t>
   </si>
   <si>
@@ -585,6 +549,39 @@
   </si>
   <si>
     <t>Sinistra Ecologia Libertà</t>
+  </si>
+  <si>
+    <t>Movimento Sociale Italiano - Destra Nazionale</t>
+  </si>
+  <si>
+    <t>Fratelli d'Italia</t>
+  </si>
+  <si>
+    <t>Futuro e Libertà per l'Italia</t>
+  </si>
+  <si>
+    <t>Partito Democratico del Lavoro</t>
+  </si>
+  <si>
+    <t>Coraggio Italia</t>
+  </si>
+  <si>
+    <t>Popolari UDEUR</t>
+  </si>
+  <si>
+    <t>Unione di Centro (2002)</t>
+  </si>
+  <si>
+    <t>Partito Radicale</t>
+  </si>
+  <si>
+    <t>Partito d'Azione</t>
+  </si>
+  <si>
+    <t>Partito della Rifondazione Comunista - Sinistra Europea</t>
+  </si>
+  <si>
+    <t>Democrazia Nazionale - Costituente di Destra</t>
   </si>
 </sst>
 </file>
@@ -620,9 +617,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04807EFF-D895-42E1-B5DD-33D6D16A4AE7}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,10 +955,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,15 +974,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1014,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1022,23 +1022,23 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1054,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1070,15 +1070,15 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1086,15 +1086,15 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1102,15 +1102,15 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1118,23 +1118,23 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1142,31 +1142,31 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,15 +1174,15 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
         <v>174</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1190,23 +1190,23 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1214,7 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1230,23 +1230,23 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,23 +1254,23 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,39 +1278,39 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" t="s">
-        <v>125</v>
+        <v>157</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1318,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1326,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,7 +1334,7 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1342,15 +1342,15 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1366,23 +1366,23 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1390,7 +1390,7 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1398,7 +1398,7 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1406,23 +1406,23 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
         <v>129</v>
-      </c>
-      <c r="B59" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1430,7 +1430,7 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1438,7 +1438,7 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1454,7 +1454,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1462,7 +1462,7 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1470,7 +1470,7 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1478,7 +1478,7 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1510,15 +1510,15 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1542,15 +1542,15 @@
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,7 +1558,7 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1574,7 +1574,7 @@
         <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1582,31 +1582,31 @@
         <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1614,15 +1614,15 @@
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1630,15 +1630,15 @@
         <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
         <v>173</v>
-      </c>
-      <c r="B86" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1646,15 +1646,15 @@
         <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1662,7 +1662,7 @@
         <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,15 +1678,15 @@
         <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
         <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
         <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1718,7 +1718,7 @@
         <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1726,7 +1726,7 @@
         <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1734,15 +1734,15 @@
         <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1750,7 +1750,7 @@
         <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1758,15 +1758,15 @@
         <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1774,15 +1774,15 @@
         <v>63</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
         <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1798,23 +1798,23 @@
         <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B107" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>67</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1838,7 +1838,7 @@
         <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1846,15 +1846,15 @@
         <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1870,23 +1870,23 @@
         <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B117" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1894,15 +1894,15 @@
         <v>72</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,23 +1910,23 @@
         <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1950,47 +1950,47 @@
         <v>76</v>
       </c>
       <c r="B125" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B129" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Partiti.xlsx
+++ b/Partiti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e1ab523863af8d3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{DE50A2B5-1312-4C32-A671-23C8E36649E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B65647B5-21ED-4E81-B2ED-78D2A2146ECA}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{DE50A2B5-1312-4C32-A671-23C8E36649E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B7C5812-354E-4F90-9137-59B474A0AC0D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{933C662A-322D-4297-B158-AF9785DD6C1E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
   <si>
     <t xml:space="preserve">DEMOCRATICO CRISTIANO </t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>Sinistra Indipendente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partito Radicale </t>
   </si>
   <si>
     <t>FEDERALISTA EUROPEO</t>
@@ -943,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04807EFF-D895-42E1-B5DD-33D6D16A4AE7}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -982,7 +979,7 @@
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1038,7 +1035,7 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1062,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1102,15 +1099,15 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1123,10 +1120,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1150,7 +1147,7 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1158,7 +1155,7 @@
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,15 +1171,15 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1190,7 +1187,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1203,10 +1200,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,7 +1219,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1243,10 +1240,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,23 +1251,23 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1283,7 +1280,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
@@ -1291,26 +1288,26 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,7 +1331,7 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1347,7 +1344,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
         <v>85</v>
@@ -1371,7 +1368,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
         <v>85</v>
@@ -1379,10 +1376,10 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1390,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1406,7 +1403,7 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1414,15 +1411,15 @@
         <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1438,7 +1435,7 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1446,7 +1443,7 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1454,7 +1451,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1486,7 +1483,7 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1494,7 +1491,7 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1515,10 +1512,10 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
         <v>120</v>
-      </c>
-      <c r="B71" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,7 +1523,7 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1542,15 +1539,15 @@
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" t="s">
         <v>122</v>
-      </c>
-      <c r="B75" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,7 +1555,7 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1582,28 +1579,28 @@
         <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
         <v>90</v>
@@ -1619,10 +1616,10 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
         <v>124</v>
-      </c>
-      <c r="B84" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1630,15 +1627,15 @@
         <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1646,12 +1643,12 @@
         <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
         <v>91</v>
@@ -1683,10 +1680,10 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1694,7 +1691,7 @@
         <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1710,7 +1707,7 @@
         <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1739,7 +1736,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
         <v>87</v>
@@ -1750,7 +1747,7 @@
         <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1763,7 +1760,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B102" t="s">
         <v>90</v>
@@ -1779,10 +1776,10 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1790,7 +1787,7 @@
         <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1803,7 +1800,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B107" t="s">
         <v>91</v>
@@ -1811,7 +1808,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B108" t="s">
         <v>91</v>
@@ -1838,7 +1835,7 @@
         <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1851,10 +1848,10 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" t="s">
         <v>128</v>
-      </c>
-      <c r="B113" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1875,7 +1872,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B116" t="s">
         <v>84</v>
@@ -1883,7 +1880,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
         <v>83</v>
@@ -1899,10 +1896,10 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,12 +1907,12 @@
         <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B121" t="s">
         <v>91</v>
@@ -1934,7 +1931,7 @@
         <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1955,31 +1952,31 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B129" t="s">
         <v>88</v>
@@ -1987,7 +1984,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
         <v>91</v>

--- a/Partiti.xlsx
+++ b/Partiti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e1ab523863af8d3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{DE50A2B5-1312-4C32-A671-23C8E36649E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B7C5812-354E-4F90-9137-59B474A0AC0D}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{DE50A2B5-1312-4C32-A671-23C8E36649E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF08EA74-4B40-43DE-83EA-EC332B5DA8A2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{933C662A-322D-4297-B158-AF9785DD6C1E}"/>
+    <workbookView xWindow="2688" yWindow="2052" windowWidth="17280" windowHeight="10908" xr2:uid="{933C662A-322D-4297-B158-AF9785DD6C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="180">
   <si>
     <t xml:space="preserve">DEMOCRATICO CRISTIANO </t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>AUTONOMISTA</t>
-  </si>
-  <si>
-    <t>Fratelli D'Italia</t>
   </si>
   <si>
     <t>Movimento 5 Stelle</t>
@@ -940,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04807EFF-D895-42E1-B5DD-33D6D16A4AE7}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -979,7 +976,7 @@
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1035,7 +1032,7 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1099,15 +1096,15 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1120,10 +1117,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1147,7 +1144,7 @@
         <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1155,7 +1152,7 @@
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1171,15 +1168,15 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1187,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1200,10 +1197,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1211,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +1216,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1240,10 +1237,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1251,7 +1248,7 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +1256,7 @@
         <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1267,7 +1264,7 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1280,7 +1277,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
@@ -1288,26 +1285,26 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1331,7 +1328,7 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1344,7 +1341,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
         <v>85</v>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
         <v>85</v>
@@ -1376,10 +1373,10 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1387,7 +1384,7 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1403,7 +1400,7 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1411,15 +1408,15 @@
         <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1435,7 +1432,7 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1443,7 +1440,7 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1451,7 +1448,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1483,7 +1480,7 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1491,7 +1488,7 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1512,10 +1509,10 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
         <v>119</v>
-      </c>
-      <c r="B71" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1523,7 +1520,7 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1539,15 +1536,15 @@
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" t="s">
         <v>121</v>
-      </c>
-      <c r="B75" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1555,7 +1552,7 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1579,28 +1576,28 @@
         <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B82" t="s">
         <v>90</v>
@@ -1616,10 +1613,10 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
         <v>123</v>
-      </c>
-      <c r="B84" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1627,15 +1624,15 @@
         <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1643,12 +1640,12 @@
         <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
         <v>91</v>
@@ -1680,10 +1677,10 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1691,7 +1688,7 @@
         <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1707,7 +1704,7 @@
         <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1736,7 +1733,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
         <v>87</v>
@@ -1747,7 +1744,7 @@
         <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1760,7 +1757,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
         <v>90</v>
@@ -1776,10 +1773,10 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1787,7 +1784,7 @@
         <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1800,7 +1797,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B107" t="s">
         <v>91</v>
@@ -1808,7 +1805,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B108" t="s">
         <v>91</v>
@@ -1835,7 +1832,7 @@
         <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1848,10 +1845,10 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
         <v>127</v>
-      </c>
-      <c r="B113" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1872,7 +1869,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B116" t="s">
         <v>84</v>
@@ -1880,7 +1877,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
         <v>83</v>
@@ -1896,10 +1893,10 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1907,12 +1904,12 @@
         <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
         <v>91</v>
@@ -1931,7 +1928,7 @@
         <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1952,31 +1949,31 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B129" t="s">
         <v>88</v>
@@ -1984,7 +1981,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
         <v>91</v>

--- a/Partiti.xlsx
+++ b/Partiti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e1ab523863af8d3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{DE50A2B5-1312-4C32-A671-23C8E36649E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF08EA74-4B40-43DE-83EA-EC332B5DA8A2}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DE50A2B5-1312-4C32-A671-23C8E36649E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B8BA9C8-71D8-49BA-BA78-DA894220D58A}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2052" windowWidth="17280" windowHeight="10908" xr2:uid="{933C662A-322D-4297-B158-AF9785DD6C1E}"/>
+    <workbookView xWindow="1932" yWindow="1140" windowWidth="17280" windowHeight="10908" xr2:uid="{933C662A-322D-4297-B158-AF9785DD6C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
   <si>
     <t xml:space="preserve">DEMOCRATICO CRISTIANO </t>
   </si>
@@ -272,6 +272,9 @@
     <t>Partito Popolare Italiano</t>
   </si>
   <si>
+    <t>Fronte dell'uomo qualunque</t>
+  </si>
+  <si>
     <t>Partito Socialista Democratico Italiano</t>
   </si>
   <si>
@@ -287,6 +290,12 @@
     <t>Partito Liberale Italiano</t>
   </si>
   <si>
+    <t xml:space="preserve">Partito Nazionale Monarchico </t>
+  </si>
+  <si>
+    <t>Movimento Sociale Italiano</t>
+  </si>
+  <si>
     <t>Italia Viva</t>
   </si>
   <si>
@@ -302,15 +311,36 @@
     <t>Lega Nord</t>
   </si>
   <si>
+    <t>Lega Italiana Federalista</t>
+  </si>
+  <si>
+    <t>Noi Moderati</t>
+  </si>
+  <si>
+    <t>Democrazia del lavoro</t>
+  </si>
+  <si>
+    <t>Rifondazione Comunista</t>
+  </si>
+  <si>
     <t>Centro Democratico</t>
   </si>
   <si>
     <t>RIFONDAZIONE COMUNISTA</t>
   </si>
   <si>
+    <t>Unione Democratici per l'Europa</t>
+  </si>
+  <si>
     <t>L'Ulivo</t>
   </si>
   <si>
+    <t>Unione di Centro</t>
+  </si>
+  <si>
+    <t>Futuro e libertà per l'italia</t>
+  </si>
+  <si>
     <t>Liberi e Uguali</t>
   </si>
   <si>
@@ -374,12 +404,18 @@
     <t>Sinistra Indipendente</t>
   </si>
   <si>
+    <t xml:space="preserve">Partito Radicale </t>
+  </si>
+  <si>
     <t>FEDERALISTA EUROPEO</t>
   </si>
   <si>
     <t>AUTONOMISTA</t>
   </si>
   <si>
+    <t>Fratelli D'Italia</t>
+  </si>
+  <si>
     <t>Movimento 5 Stelle</t>
   </si>
   <si>
@@ -503,6 +539,9 @@
     <t>LEGA NORD E AUTONOMIE - LEGA DEI POPOLI - NOI CON SALVINI</t>
   </si>
   <si>
+    <t xml:space="preserve">Partito d'Azione </t>
+  </si>
+  <si>
     <t>FRATELLI D'ITALIA-ALLEANZA NAZIONALE</t>
   </si>
   <si>
@@ -533,6 +572,9 @@
     <t>Partito Nazionale Monarchico</t>
   </si>
   <si>
+    <t>Democrazia Nazionale</t>
+  </si>
+  <si>
     <t>Democrazia Proletaria</t>
   </si>
   <si>
@@ -543,39 +585,6 @@
   </si>
   <si>
     <t>Sinistra Ecologia Libertà</t>
-  </si>
-  <si>
-    <t>Movimento Sociale Italiano - Destra Nazionale</t>
-  </si>
-  <si>
-    <t>Fratelli d'Italia</t>
-  </si>
-  <si>
-    <t>Futuro e Libertà per l'Italia</t>
-  </si>
-  <si>
-    <t>Partito Democratico del Lavoro</t>
-  </si>
-  <si>
-    <t>Coraggio Italia</t>
-  </si>
-  <si>
-    <t>Popolari UDEUR</t>
-  </si>
-  <si>
-    <t>Unione di Centro (2002)</t>
-  </si>
-  <si>
-    <t>Partito Radicale</t>
-  </si>
-  <si>
-    <t>Partito d'Azione</t>
-  </si>
-  <si>
-    <t>Partito della Rifondazione Comunista - Sinistra Europea</t>
-  </si>
-  <si>
-    <t>Democrazia Nazionale - Costituente di Destra</t>
   </si>
 </sst>
 </file>
@@ -611,12 +620,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -937,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04807EFF-D895-42E1-B5DD-33D6D16A4AE7}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,10 +955,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -968,15 +974,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -984,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -992,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1000,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1008,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1016,23 +1022,23 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1040,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1048,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1056,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1064,15 +1070,15 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1080,15 +1086,15 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1096,15 +1102,15 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1112,23 +1118,23 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1136,31 +1142,31 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1168,15 +1174,15 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1184,23 +1190,23 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1208,7 +1214,7 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1216,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1224,23 +1230,23 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1248,23 +1254,23 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1272,39 +1278,39 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1312,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1320,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1328,7 +1334,7 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1336,15 +1342,15 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1352,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1360,23 +1366,23 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1384,7 +1390,7 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1392,7 +1398,7 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1400,23 +1406,23 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1424,7 +1430,7 @@
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1432,7 +1438,7 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1440,7 +1446,7 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1448,7 +1454,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1456,7 +1462,7 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1464,7 +1470,7 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1472,7 +1478,7 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1480,7 +1486,7 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1488,7 +1494,7 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1496,7 +1502,7 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1504,15 +1510,15 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1520,7 +1526,7 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1528,7 +1534,7 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1536,15 +1542,15 @@
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1552,7 +1558,7 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1568,7 +1574,7 @@
         <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1576,31 +1582,31 @@
         <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1608,15 +1614,15 @@
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1624,15 +1630,15 @@
         <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1640,15 +1646,15 @@
         <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1656,7 +1662,7 @@
         <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1664,7 +1670,7 @@
         <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1672,15 +1678,15 @@
         <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1688,7 +1694,7 @@
         <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1696,7 +1702,7 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1704,7 +1710,7 @@
         <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1712,7 +1718,7 @@
         <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1720,7 +1726,7 @@
         <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1728,15 +1734,15 @@
         <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1744,7 +1750,7 @@
         <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1752,15 +1758,15 @@
         <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1768,15 +1774,15 @@
         <v>63</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1784,7 +1790,7 @@
         <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1792,23 +1798,23 @@
         <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1816,7 +1822,7 @@
         <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1824,7 +1830,7 @@
         <v>67</v>
       </c>
       <c r="B110" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1832,7 +1838,7 @@
         <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1840,15 +1846,15 @@
         <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1856,7 +1862,7 @@
         <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1864,23 +1870,23 @@
         <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1888,15 +1894,15 @@
         <v>72</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1904,23 +1910,23 @@
         <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B121" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1928,7 +1934,7 @@
         <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1936,7 +1942,7 @@
         <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1944,47 +1950,47 @@
         <v>76</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B129" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B130" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
